--- a/02 封装制作及命名规则/01_封装制作及命名规则.xlsx
+++ b/02 封装制作及命名规则/01_封装制作及命名规则.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/02 封装制作及命名规则/01_封装制作及命名规则.xlsx
+++ b/02 封装制作及命名规则/01_封装制作及命名规则.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>电阻</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -854,7 +854,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -996,9 +996,7 @@
       <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1016,7 +1014,7 @@
       <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1108,7 +1106,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
